--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+  <si>
+    <t>sepal-length</t>
+  </si>
+  <si>
+    <t>sepal-width</t>
+  </si>
+  <si>
+    <t>petal-length</t>
+  </si>
+  <si>
+    <t>petal-width</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
   <si>
     <t>Iris-virginica</t>
   </si>
@@ -38,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3A7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -70,10 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,610 +393,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="2">
         <v>5.9</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>5.1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="2">
         <v>1.8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="A3" s="2">
         <v>5.4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="2">
         <v>4.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="2">
         <v>1.5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="2">
         <v>3.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="2">
         <v>1.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="2">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>5.6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="2">
         <v>4.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="2">
         <v>1.5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1">
+      <c r="A6" s="2">
         <v>4.9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="2">
         <v>2.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="2">
         <v>4.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="2">
         <v>1.7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="A6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>4.5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="2">
         <v>2.3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="2">
         <v>1.3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="2">
         <v>0.3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1">
+      <c r="A8" s="2">
         <v>6.9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="2">
         <v>3.1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="2">
         <v>4.9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="2">
         <v>1.5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>5.6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="2">
         <v>2.7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="2">
         <v>4.2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="2">
         <v>1.3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="A9" s="1">
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="A10" s="2">
         <v>4.8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="2">
         <v>3.4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="2">
         <v>1.6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="2">
         <v>0.2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
-      <c r="A10" s="1">
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>6.4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="2">
         <v>3.2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="2">
         <v>4.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="2">
         <v>1.5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
-      <c r="A11" s="1">
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="2">
         <v>6.7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="2">
         <v>1.7</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>3.4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="2">
         <v>4.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="2">
         <v>1.6</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
-      <c r="A13" s="1">
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="2">
         <v>5.2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="2">
         <v>4.1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="2">
         <v>1.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="2">
         <v>0.1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
-      <c r="A14" s="1">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="2">
         <v>7.2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="2">
         <v>3.6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="2">
         <v>6.1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="2">
         <v>2.5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
-      <c r="A15" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1">
+      <c r="A17" s="3">
         <v>5.9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="3">
         <v>3.2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="3">
         <v>4.8</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="3">
         <v>1.8</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="1">
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="2">
         <v>6.7</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="2">
         <v>2.5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="2">
         <v>5.8</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="2">
         <v>1.8</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="1">
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="2">
         <v>6.4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="2">
         <v>3.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="2">
         <v>5.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="2">
         <v>1.8</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="1">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="2">
         <v>5.1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="2">
         <v>3.8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="2">
         <v>1.6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="2">
         <v>0.2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
-      <c r="A20" s="1">
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="2">
         <v>4.9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="2">
         <v>3.1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="2">
         <v>1.5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="2">
         <v>0.1</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="1">
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="2">
         <v>5.8</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="2">
         <v>2.7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="2">
         <v>3.9</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="2">
         <v>1.2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="1">
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
+      <c r="A23" s="2">
         <v>6.9</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="2">
         <v>3.2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="2">
         <v>5.7</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="2">
         <v>2.3</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
-      <c r="A23" s="1">
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
+      <c r="A24" s="2">
         <v>6.1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="2">
         <v>2.9</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="2">
         <v>4.7</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="2">
         <v>1.4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
-      <c r="A24" s="1">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
         <v>2.2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="2">
         <v>5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="2">
         <v>1.5</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
-      <c r="A25" s="1">
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="2">
         <v>7.2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="2">
         <v>5.8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="2">
         <v>1.6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
-      <c r="A26" s="1">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="2">
         <v>4.8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="2">
         <v>1.8</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
-      <c r="A27" s="1">
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="2">
         <v>6.2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="2">
         <v>2.9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="2">
         <v>4.3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="2">
         <v>1.3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
-      <c r="A28" s="1">
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="2">
         <v>5.5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="2">
         <v>2.4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="2">
         <v>3.8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="2">
         <v>1.1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
-      <c r="A29" s="1">
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
+      <c r="A30" s="2">
         <v>5.8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="2">
         <v>2.7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="2">
         <v>5.1</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="2">
         <v>1.9</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1">
-      <c r="A30" s="1">
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="2">
         <v>6.7</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="2">
         <v>3.1</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="2">
         <v>5.6</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="2">
         <v>2.4</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
